--- a/CumulativeTestsByTypeByCounty/2021-01-25.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-01-25.xlsx
@@ -35,8 +35,7 @@
   </si>
   <si>
     <t>Cumulative
-Total
-Tests</t>
+Total Tests</t>
   </si>
   <si>
     <t>ANDERSON</t>
@@ -815,13 +814,13 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
-      <name val="MS PGothic"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
-      <name val="MS PGothic"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1043,14 +1042,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1">
+    <row r="1" ht="43" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,24 +1066,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1">
+    <row r="2" ht="14" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>44131</v>
+        <v>44149</v>
       </c>
       <c r="C2" s="4">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D2" s="4">
-        <v>4224</v>
+        <v>4255</v>
       </c>
       <c r="E2" s="4">
-        <v>49709</v>
-      </c>
-    </row>
-    <row r="3" ht="12" customHeight="1">
+        <v>49759</v>
+      </c>
+    </row>
+    <row r="3" ht="14" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1092,50 +1091,50 @@
         <v>3663</v>
       </c>
       <c r="C3" s="4">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3" s="4">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="E3" s="4">
-        <v>5463</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>43331</v>
+        <v>43340</v>
       </c>
       <c r="C4" s="4">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D4" s="4">
-        <v>11652</v>
+        <v>11733</v>
       </c>
       <c r="E4" s="4">
-        <v>56304</v>
-      </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
+        <v>56395</v>
+      </c>
+    </row>
+    <row r="5" ht="14" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5471</v>
+        <v>5495</v>
       </c>
       <c r="C5" s="4">
         <v>1854</v>
       </c>
       <c r="D5" s="4">
-        <v>3506</v>
+        <v>3524</v>
       </c>
       <c r="E5" s="4">
-        <v>10831</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1">
+        <v>10873</v>
+      </c>
+    </row>
+    <row r="6" ht="14" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1146,13 +1145,13 @@
         <v>96</v>
       </c>
       <c r="D6" s="4">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E6" s="4">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1163,47 +1162,47 @@
         <v>107</v>
       </c>
       <c r="D7" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>31885</v>
+        <v>31944</v>
       </c>
       <c r="C8" s="4">
         <v>892</v>
       </c>
       <c r="D8" s="4">
-        <v>2712</v>
+        <v>2788</v>
       </c>
       <c r="E8" s="4">
-        <v>35489</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1">
+        <v>35624</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>13618</v>
+        <v>13681</v>
       </c>
       <c r="C9" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D9" s="4">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E9" s="4">
-        <v>14376</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
+        <v>14456</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1220,46 +1219,46 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row r="11" ht="14" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>5746</v>
+        <v>5767</v>
       </c>
       <c r="C11" s="4">
         <v>357</v>
       </c>
       <c r="D11" s="4">
-        <v>1981</v>
+        <v>2039</v>
       </c>
       <c r="E11" s="4">
-        <v>8084</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="12" ht="14" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>38284</v>
+        <v>38385</v>
       </c>
       <c r="C12" s="4">
         <v>876</v>
       </c>
       <c r="D12" s="4">
-        <v>9983</v>
+        <v>10060</v>
       </c>
       <c r="E12" s="4">
-        <v>49143</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1">
+        <v>49321</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
@@ -1268,78 +1267,78 @@
         <v>570</v>
       </c>
       <c r="E13" s="4">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="14" ht="12" customHeight="1">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>25624</v>
+        <v>25627</v>
       </c>
       <c r="C14" s="4">
         <v>4498</v>
       </c>
       <c r="D14" s="4">
-        <v>4269</v>
+        <v>4354</v>
       </c>
       <c r="E14" s="4">
-        <v>34391</v>
-      </c>
-    </row>
-    <row r="15" ht="12" customHeight="1">
+        <v>34479</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>189462</v>
+        <v>189881</v>
       </c>
       <c r="C15" s="4">
         <v>11958</v>
       </c>
       <c r="D15" s="4">
-        <v>5840</v>
+        <v>6095</v>
       </c>
       <c r="E15" s="4">
-        <v>207260</v>
-      </c>
-    </row>
-    <row r="16" ht="12" customHeight="1">
+        <v>207934</v>
+      </c>
+    </row>
+    <row r="16" ht="14" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1216869</v>
+        <v>1220398</v>
       </c>
       <c r="C16" s="4">
-        <v>38503</v>
+        <v>38510</v>
       </c>
       <c r="D16" s="4">
-        <v>108965</v>
+        <v>111862</v>
       </c>
       <c r="E16" s="4">
-        <v>1364337</v>
-      </c>
-    </row>
-    <row r="17" ht="12" customHeight="1">
+        <v>1370770</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4352</v>
+        <v>4364</v>
       </c>
       <c r="C17" s="4">
         <v>192</v>
       </c>
       <c r="D17" s="4">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E17" s="4">
-        <v>4852</v>
-      </c>
-    </row>
-    <row r="18" ht="12" customHeight="1">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="18" ht="14" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1356,92 +1355,92 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row r="19" ht="14" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7409</v>
+        <v>7426</v>
       </c>
       <c r="C19" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D19" s="4">
-        <v>3424</v>
+        <v>3488</v>
       </c>
       <c r="E19" s="4">
-        <v>11273</v>
-      </c>
-    </row>
-    <row r="20" ht="12" customHeight="1">
+        <v>11355</v>
+      </c>
+    </row>
+    <row r="20" ht="14" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>49823</v>
+        <v>49876</v>
       </c>
       <c r="C20" s="4">
-        <v>9462</v>
+        <v>9474</v>
       </c>
       <c r="D20" s="4">
-        <v>4125</v>
+        <v>4182</v>
       </c>
       <c r="E20" s="4">
-        <v>63410</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1">
+        <v>63532</v>
+      </c>
+    </row>
+    <row r="21" ht="14" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>237920</v>
+        <v>238752</v>
       </c>
       <c r="C21" s="4">
-        <v>7477</v>
+        <v>7485</v>
       </c>
       <c r="D21" s="4">
-        <v>15716</v>
+        <v>16148</v>
       </c>
       <c r="E21" s="4">
-        <v>261113</v>
-      </c>
-    </row>
-    <row r="22" ht="12" customHeight="1">
+        <v>262385</v>
+      </c>
+    </row>
+    <row r="22" ht="14" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>181910</v>
+        <v>181949</v>
       </c>
       <c r="C22" s="4">
         <v>4920</v>
       </c>
       <c r="D22" s="4">
-        <v>8063</v>
+        <v>8434</v>
       </c>
       <c r="E22" s="4">
-        <v>194893</v>
-      </c>
-    </row>
-    <row r="23" ht="12" customHeight="1">
+        <v>195303</v>
+      </c>
+    </row>
+    <row r="23" ht="14" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="C23" s="4">
         <v>95</v>
       </c>
       <c r="D23" s="4">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E23" s="4">
-        <v>8204</v>
-      </c>
-    </row>
-    <row r="24" ht="12" customHeight="1">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="24" ht="14" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1458,194 +1457,194 @@
         <v>619</v>
       </c>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row r="25" ht="14" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>10757</v>
+        <v>10758</v>
       </c>
       <c r="C25" s="4">
         <v>1142</v>
       </c>
       <c r="D25" s="4">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E25" s="4">
-        <v>12745</v>
-      </c>
-    </row>
-    <row r="26" ht="12" customHeight="1">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="26" ht="14" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>13543</v>
+        <v>13558</v>
       </c>
       <c r="C26" s="4">
         <v>656</v>
       </c>
       <c r="D26" s="4">
-        <v>12905</v>
+        <v>13134</v>
       </c>
       <c r="E26" s="4">
-        <v>27104</v>
-      </c>
-    </row>
-    <row r="27" ht="12" customHeight="1">
+        <v>27348</v>
+      </c>
+    </row>
+    <row r="27" ht="14" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>10675</v>
+        <v>10681</v>
       </c>
       <c r="C27" s="4">
         <v>210</v>
       </c>
       <c r="D27" s="4">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="E27" s="4">
-        <v>11539</v>
-      </c>
-    </row>
-    <row r="28" ht="12" customHeight="1">
+        <v>11558</v>
+      </c>
+    </row>
+    <row r="28" ht="14" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>25031</v>
+        <v>25070</v>
       </c>
       <c r="C28" s="4">
         <v>938</v>
       </c>
       <c r="D28" s="4">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="E28" s="4">
-        <v>27473</v>
-      </c>
-    </row>
-    <row r="29" ht="12" customHeight="1">
+        <v>27551</v>
+      </c>
+    </row>
+    <row r="29" ht="14" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>24101</v>
+        <v>24334</v>
       </c>
       <c r="C29" s="4">
         <v>1379</v>
       </c>
       <c r="D29" s="4">
-        <v>3157</v>
+        <v>3187</v>
       </c>
       <c r="E29" s="4">
-        <v>28637</v>
-      </c>
-    </row>
-    <row r="30" ht="12" customHeight="1">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="30" ht="14" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>10801</v>
+        <v>10871</v>
       </c>
       <c r="C30" s="4">
         <v>239</v>
       </c>
       <c r="D30" s="4">
-        <v>2271</v>
+        <v>2304</v>
       </c>
       <c r="E30" s="4">
-        <v>13311</v>
-      </c>
-    </row>
-    <row r="31" ht="12" customHeight="1">
+        <v>13414</v>
+      </c>
+    </row>
+    <row r="31" ht="14" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4023</v>
+        <v>4026</v>
       </c>
       <c r="C31" s="4">
         <v>198</v>
       </c>
       <c r="D31" s="4">
-        <v>3200</v>
+        <v>3228</v>
       </c>
       <c r="E31" s="4">
-        <v>7421</v>
-      </c>
-    </row>
-    <row r="32" ht="12" customHeight="1">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="32" ht="14" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>193318</v>
+        <v>193589</v>
       </c>
       <c r="C32" s="4">
-        <v>6694</v>
+        <v>6697</v>
       </c>
       <c r="D32" s="4">
-        <v>20928</v>
+        <v>21510</v>
       </c>
       <c r="E32" s="4">
-        <v>220940</v>
-      </c>
-    </row>
-    <row r="33" ht="12" customHeight="1">
+        <v>221796</v>
+      </c>
+    </row>
+    <row r="33" ht="14" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4645</v>
+        <v>4652</v>
       </c>
       <c r="C33" s="4">
         <v>312</v>
       </c>
       <c r="D33" s="4">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="E33" s="4">
-        <v>5912</v>
-      </c>
-    </row>
-    <row r="34" ht="12" customHeight="1">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="34" ht="14" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C34" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D34" s="4">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E34" s="4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="35" ht="12" customHeight="1">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="35" ht="14" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10056</v>
+        <v>10155</v>
       </c>
       <c r="C35" s="4">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="D35" s="4">
-        <v>1837</v>
+        <v>1877</v>
       </c>
       <c r="E35" s="4">
-        <v>14886</v>
-      </c>
-    </row>
-    <row r="36" ht="12" customHeight="1">
+        <v>15027</v>
+      </c>
+    </row>
+    <row r="36" ht="14" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1656,81 +1655,81 @@
         <v>34</v>
       </c>
       <c r="D36" s="4">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="E36" s="4">
-        <v>4691</v>
-      </c>
-    </row>
-    <row r="37" ht="12" customHeight="1">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="37" ht="14" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6408</v>
+        <v>6415</v>
       </c>
       <c r="C37" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D37" s="4">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="E37" s="4">
-        <v>7502</v>
-      </c>
-    </row>
-    <row r="38" ht="12" customHeight="1">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="38" ht="14" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>18362</v>
+        <v>18451</v>
       </c>
       <c r="C38" s="4">
         <v>681</v>
       </c>
       <c r="D38" s="4">
-        <v>4341</v>
+        <v>4500</v>
       </c>
       <c r="E38" s="4">
-        <v>23384</v>
-      </c>
-    </row>
-    <row r="39" ht="12" customHeight="1">
+        <v>23632</v>
+      </c>
+    </row>
+    <row r="39" ht="14" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="C39" s="4">
         <v>123</v>
       </c>
       <c r="D39" s="4">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="E39" s="4">
-        <v>5924</v>
-      </c>
-    </row>
-    <row r="40" ht="12" customHeight="1">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="40" ht="14" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="C40" s="4">
         <v>98</v>
       </c>
       <c r="D40" s="4">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E40" s="4">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="41" ht="12" customHeight="1">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="41" ht="14" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1747,12 +1746,12 @@
         <v>895</v>
       </c>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row r="42" ht="14" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C42" s="4">
         <v>18</v>
@@ -1761,44 +1760,44 @@
         <v>1501</v>
       </c>
       <c r="E42" s="4">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="43" ht="12" customHeight="1">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="43" ht="14" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="C43" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4">
-        <v>2005</v>
+        <v>2044</v>
       </c>
       <c r="E43" s="4">
-        <v>4635</v>
-      </c>
-    </row>
-    <row r="44" ht="12" customHeight="1">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="44" ht="14" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>677896</v>
+        <v>681022</v>
       </c>
       <c r="C44" s="4">
-        <v>70474</v>
+        <v>70526</v>
       </c>
       <c r="D44" s="4">
-        <v>44823</v>
+        <v>48083</v>
       </c>
       <c r="E44" s="4">
-        <v>793193</v>
-      </c>
-    </row>
-    <row r="45" ht="12" customHeight="1">
+        <v>799631</v>
+      </c>
+    </row>
+    <row r="45" ht="14" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
@@ -1809,115 +1808,115 @@
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E45" s="4">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="46" ht="12" customHeight="1">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="46" ht="14" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>9522</v>
+        <v>9533</v>
       </c>
       <c r="C46" s="4">
         <v>237</v>
       </c>
       <c r="D46" s="4">
-        <v>2343</v>
+        <v>2348</v>
       </c>
       <c r="E46" s="4">
-        <v>12102</v>
-      </c>
-    </row>
-    <row r="47" ht="12" customHeight="1">
+        <v>12118</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>71204</v>
+        <v>71368</v>
       </c>
       <c r="C47" s="4">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="D47" s="4">
-        <v>10171</v>
+        <v>10543</v>
       </c>
       <c r="E47" s="4">
-        <v>87333</v>
-      </c>
-    </row>
-    <row r="48" ht="12" customHeight="1">
+        <v>87870</v>
+      </c>
+    </row>
+    <row r="48" ht="14" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5610</v>
+        <v>5618</v>
       </c>
       <c r="C48" s="4">
         <v>270</v>
       </c>
       <c r="D48" s="4">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="E48" s="4">
-        <v>7566</v>
-      </c>
-    </row>
-    <row r="49" ht="12" customHeight="1">
+        <v>7585</v>
+      </c>
+    </row>
+    <row r="49" ht="14" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="E49" s="4">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="50" ht="12" customHeight="1">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="50" ht="14" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>19497</v>
+        <v>19527</v>
       </c>
       <c r="C50" s="4">
         <v>1130</v>
       </c>
       <c r="D50" s="4">
-        <v>3188</v>
+        <v>3219</v>
       </c>
       <c r="E50" s="4">
-        <v>23815</v>
-      </c>
-    </row>
-    <row r="51" ht="12" customHeight="1">
+        <v>23876</v>
+      </c>
+    </row>
+    <row r="51" ht="14" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>68314</v>
+        <v>68718</v>
       </c>
       <c r="C51" s="4">
         <v>1975</v>
       </c>
       <c r="D51" s="4">
-        <v>1822</v>
+        <v>1849</v>
       </c>
       <c r="E51" s="4">
-        <v>72111</v>
-      </c>
-    </row>
-    <row r="52" ht="12" customHeight="1">
+        <v>72542</v>
+      </c>
+    </row>
+    <row r="52" ht="14" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1928,30 +1927,30 @@
         <v>13</v>
       </c>
       <c r="D52" s="4">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E52" s="4">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="53" ht="12" customHeight="1">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="53" ht="14" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C53" s="4">
         <v>56</v>
       </c>
       <c r="D53" s="4">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="E53" s="4">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="54" ht="12" customHeight="1">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="54" ht="14" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1962,30 +1961,30 @@
         <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="E54" s="4">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="55" ht="12" customHeight="1">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="55" ht="14" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E55" s="4">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="56" ht="12" customHeight="1">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="56" ht="14" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="57" ht="12" customHeight="1">
+    <row r="57" ht="14" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -2019,109 +2018,109 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="58" ht="12" customHeight="1">
+    <row r="58" ht="14" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1739428</v>
+        <v>1748145</v>
       </c>
       <c r="C58" s="4">
-        <v>115023</v>
+        <v>115289</v>
       </c>
       <c r="D58" s="4">
-        <v>104556</v>
+        <v>109648</v>
       </c>
       <c r="E58" s="4">
-        <v>1959007</v>
-      </c>
-    </row>
-    <row r="59" ht="12" customHeight="1">
+        <v>1973082</v>
+      </c>
+    </row>
+    <row r="59" ht="14" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6649</v>
+        <v>6650</v>
       </c>
       <c r="C59" s="4">
         <v>403</v>
       </c>
       <c r="D59" s="4">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="E59" s="4">
-        <v>8636</v>
-      </c>
-    </row>
-    <row r="60" ht="12" customHeight="1">
+        <v>8642</v>
+      </c>
+    </row>
+    <row r="60" ht="14" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6643</v>
+        <v>6649</v>
       </c>
       <c r="C60" s="4">
         <v>153</v>
       </c>
       <c r="D60" s="4">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="E60" s="4">
-        <v>8515</v>
-      </c>
-    </row>
-    <row r="61" ht="12" customHeight="1">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="61" ht="14" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4004</v>
+        <v>4008</v>
       </c>
       <c r="C61" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D61" s="4">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="E61" s="4">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="62" ht="12" customHeight="1">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="62" ht="14" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="C62" s="4">
         <v>196</v>
       </c>
       <c r="D62" s="4">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="E62" s="4">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="63" ht="12" customHeight="1">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="63" ht="14" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>414227</v>
+        <v>415968</v>
       </c>
       <c r="C63" s="4">
-        <v>51266</v>
+        <v>51292</v>
       </c>
       <c r="D63" s="4">
-        <v>39508</v>
+        <v>40911</v>
       </c>
       <c r="E63" s="4">
-        <v>505001</v>
-      </c>
-    </row>
-    <row r="64" ht="12" customHeight="1">
+        <v>508171</v>
+      </c>
+    </row>
+    <row r="64" ht="14" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -2138,92 +2137,92 @@
         <v>667</v>
       </c>
     </row>
-    <row r="65" ht="12" customHeight="1">
+    <row r="65" ht="14" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>6920</v>
+        <v>6924</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E65" s="4">
-        <v>7301</v>
-      </c>
-    </row>
-    <row r="66" ht="12" customHeight="1">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="66" ht="14" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C66" s="4">
         <v>186</v>
       </c>
       <c r="D66" s="4">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E66" s="4">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="67" ht="12" customHeight="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="67" ht="14" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>13944</v>
+        <v>13962</v>
       </c>
       <c r="C67" s="4">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="D67" s="4">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E67" s="4">
-        <v>16727</v>
-      </c>
-    </row>
-    <row r="68" ht="12" customHeight="1">
+        <v>16757</v>
+      </c>
+    </row>
+    <row r="68" ht="14" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3640</v>
+        <v>3648</v>
       </c>
       <c r="C68" s="4">
         <v>295</v>
       </c>
       <c r="D68" s="4">
-        <v>2361</v>
+        <v>2401</v>
       </c>
       <c r="E68" s="4">
-        <v>6296</v>
-      </c>
-    </row>
-    <row r="69" ht="12" customHeight="1">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="69" ht="14" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>50111</v>
+        <v>50128</v>
       </c>
       <c r="C69" s="4">
-        <v>3772</v>
+        <v>3788</v>
       </c>
       <c r="D69" s="4">
-        <v>9895</v>
+        <v>10109</v>
       </c>
       <c r="E69" s="4">
-        <v>63778</v>
-      </c>
-    </row>
-    <row r="70" ht="12" customHeight="1">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="70" ht="14" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -2234,115 +2233,115 @@
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E70" s="4">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="71" ht="12" customHeight="1">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="71" ht="14" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>672273</v>
+        <v>676881</v>
       </c>
       <c r="C71" s="4">
-        <v>14816</v>
+        <v>14818</v>
       </c>
       <c r="D71" s="4">
-        <v>67489</v>
+        <v>75011</v>
       </c>
       <c r="E71" s="4">
-        <v>754578</v>
-      </c>
-    </row>
-    <row r="72" ht="12" customHeight="1">
+        <v>766710</v>
+      </c>
+    </row>
+    <row r="72" ht="14" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>124484</v>
+        <v>124977</v>
       </c>
       <c r="C72" s="4">
-        <v>6263</v>
+        <v>6265</v>
       </c>
       <c r="D72" s="4">
-        <v>5208</v>
+        <v>5398</v>
       </c>
       <c r="E72" s="4">
-        <v>135955</v>
-      </c>
-    </row>
-    <row r="73" ht="12" customHeight="1">
+        <v>136640</v>
+      </c>
+    </row>
+    <row r="73" ht="14" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>13970</v>
+        <v>14077</v>
       </c>
       <c r="C73" s="4">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D73" s="4">
-        <v>3436</v>
+        <v>3542</v>
       </c>
       <c r="E73" s="4">
-        <v>18390</v>
-      </c>
-    </row>
-    <row r="74" ht="12" customHeight="1">
+        <v>18604</v>
+      </c>
+    </row>
+    <row r="74" ht="14" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10635</v>
+        <v>10639</v>
       </c>
       <c r="C74" s="4">
         <v>370</v>
       </c>
       <c r="D74" s="4">
-        <v>1060</v>
+        <v>1136</v>
       </c>
       <c r="E74" s="4">
-        <v>12065</v>
-      </c>
-    </row>
-    <row r="75" ht="12" customHeight="1">
+        <v>12145</v>
+      </c>
+    </row>
+    <row r="75" ht="14" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>19519</v>
+        <v>19604</v>
       </c>
       <c r="C75" s="4">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D75" s="4">
-        <v>2493</v>
+        <v>2546</v>
       </c>
       <c r="E75" s="4">
-        <v>22683</v>
-      </c>
-    </row>
-    <row r="76" ht="12" customHeight="1">
+        <v>22822</v>
+      </c>
+    </row>
+    <row r="76" ht="14" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11222</v>
+        <v>11231</v>
       </c>
       <c r="C76" s="4">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D76" s="4">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="E76" s="4">
-        <v>12662</v>
-      </c>
-    </row>
-    <row r="77" ht="12" customHeight="1">
+        <v>12685</v>
+      </c>
+    </row>
+    <row r="77" ht="14" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
@@ -2353,18 +2352,18 @@
         <v>25</v>
       </c>
       <c r="D77" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E77" s="4">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="78" ht="12" customHeight="1">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="78" ht="14" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="C78" s="4">
         <v>103</v>
@@ -2373,10 +2372,10 @@
         <v>247</v>
       </c>
       <c r="E78" s="4">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="79" ht="12" customHeight="1">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="79" ht="14" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
@@ -2387,86 +2386,86 @@
         <v>6</v>
       </c>
       <c r="D79" s="4">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E79" s="4">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="80" ht="12" customHeight="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="80" ht="14" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>474175</v>
+        <v>475853</v>
       </c>
       <c r="C80" s="4">
-        <v>18391</v>
+        <v>18419</v>
       </c>
       <c r="D80" s="4">
-        <v>15541</v>
+        <v>16100</v>
       </c>
       <c r="E80" s="4">
-        <v>508107</v>
-      </c>
-    </row>
-    <row r="81" ht="12" customHeight="1">
+        <v>510372</v>
+      </c>
+    </row>
+    <row r="81" ht="14" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C81" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D81" s="4">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E81" s="4">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="82" ht="12" customHeight="1">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="82" ht="14" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11207</v>
+        <v>11242</v>
       </c>
       <c r="C82" s="4">
         <v>598</v>
       </c>
       <c r="D82" s="4">
-        <v>2299</v>
+        <v>2401</v>
       </c>
       <c r="E82" s="4">
-        <v>14104</v>
-      </c>
-    </row>
-    <row r="83" ht="12" customHeight="1">
+        <v>14241</v>
+      </c>
+    </row>
+    <row r="83" ht="14" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>11949</v>
+        <v>11996</v>
       </c>
       <c r="C83" s="4">
         <v>373</v>
       </c>
       <c r="D83" s="4">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E83" s="4">
-        <v>12629</v>
-      </c>
-    </row>
-    <row r="84" ht="12" customHeight="1">
+        <v>12687</v>
+      </c>
+    </row>
+    <row r="84" ht="14" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="C84" s="4">
         <v>182</v>
@@ -2475,27 +2474,27 @@
         <v>598</v>
       </c>
       <c r="E84" s="4">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="85" ht="12" customHeight="1">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="85" ht="14" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>257043</v>
+        <v>257494</v>
       </c>
       <c r="C85" s="4">
-        <v>7747</v>
+        <v>7753</v>
       </c>
       <c r="D85" s="4">
-        <v>12424</v>
+        <v>12749</v>
       </c>
       <c r="E85" s="4">
-        <v>277214</v>
-      </c>
-    </row>
-    <row r="86" ht="12" customHeight="1">
+        <v>277996</v>
+      </c>
+    </row>
+    <row r="86" ht="14" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -2506,30 +2505,30 @@
         <v>43</v>
       </c>
       <c r="D86" s="4">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E86" s="4">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="87" ht="12" customHeight="1">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="87" ht="14" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13657</v>
+        <v>13666</v>
       </c>
       <c r="C87" s="4">
         <v>295</v>
       </c>
       <c r="D87" s="4">
-        <v>1910</v>
+        <v>2004</v>
       </c>
       <c r="E87" s="4">
-        <v>15862</v>
-      </c>
-    </row>
-    <row r="88" ht="12" customHeight="1">
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="88" ht="14" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -2546,194 +2545,194 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" ht="12" customHeight="1">
+    <row r="89" ht="14" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="C89" s="4">
         <v>140</v>
       </c>
       <c r="D89" s="4">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="E89" s="4">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="90" ht="12" customHeight="1">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="90" ht="14" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10484</v>
+        <v>10514</v>
       </c>
       <c r="C90" s="4">
         <v>265</v>
       </c>
       <c r="D90" s="4">
-        <v>1949</v>
+        <v>1962</v>
       </c>
       <c r="E90" s="4">
-        <v>12698</v>
-      </c>
-    </row>
-    <row r="91" ht="12" customHeight="1">
+        <v>12741</v>
+      </c>
+    </row>
+    <row r="91" ht="14" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6476</v>
+        <v>6480</v>
       </c>
       <c r="C91" s="4">
         <v>241</v>
       </c>
       <c r="D91" s="4">
-        <v>1185</v>
+        <v>1216</v>
       </c>
       <c r="E91" s="4">
-        <v>7902</v>
-      </c>
-    </row>
-    <row r="92" ht="12" customHeight="1">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="92" ht="14" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>77557</v>
+        <v>78868</v>
       </c>
       <c r="C92" s="4">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="D92" s="4">
-        <v>7200</v>
+        <v>7324</v>
       </c>
       <c r="E92" s="4">
-        <v>87952</v>
-      </c>
-    </row>
-    <row r="93" ht="12" customHeight="1">
+        <v>89388</v>
+      </c>
+    </row>
+    <row r="93" ht="14" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>38448</v>
+        <v>38528</v>
       </c>
       <c r="C93" s="4">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="D93" s="4">
-        <v>9141</v>
+        <v>9234</v>
       </c>
       <c r="E93" s="4">
-        <v>55870</v>
-      </c>
-    </row>
-    <row r="94" ht="12" customHeight="1">
+        <v>56044</v>
+      </c>
+    </row>
+    <row r="94" ht="14" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>19869</v>
+        <v>19888</v>
       </c>
       <c r="C94" s="4">
         <v>405</v>
       </c>
       <c r="D94" s="4">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="E94" s="4">
-        <v>21216</v>
-      </c>
-    </row>
-    <row r="95" ht="12" customHeight="1">
+        <v>21251</v>
+      </c>
+    </row>
+    <row r="95" ht="14" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>54753</v>
+        <v>54902</v>
       </c>
       <c r="C95" s="4">
         <v>2704</v>
       </c>
       <c r="D95" s="4">
-        <v>8676</v>
+        <v>9002</v>
       </c>
       <c r="E95" s="4">
-        <v>66133</v>
-      </c>
-    </row>
-    <row r="96" ht="12" customHeight="1">
+        <v>66608</v>
+      </c>
+    </row>
+    <row r="96" ht="14" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>10740</v>
+        <v>10746</v>
       </c>
       <c r="C96" s="4">
         <v>230</v>
       </c>
       <c r="D96" s="4">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E96" s="4">
-        <v>12486</v>
-      </c>
-    </row>
-    <row r="97" ht="12" customHeight="1">
+        <v>12494</v>
+      </c>
+    </row>
+    <row r="97" ht="14" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C97" s="4">
         <v>20</v>
       </c>
       <c r="D97" s="4">
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="E97" s="4">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="98" ht="12" customHeight="1">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="98" ht="14" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>3948</v>
+        <v>3964</v>
       </c>
       <c r="C98" s="4">
         <v>272</v>
       </c>
       <c r="D98" s="4">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="E98" s="4">
-        <v>4812</v>
-      </c>
-    </row>
-    <row r="99" ht="12" customHeight="1">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="99" ht="14" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="C99" s="4">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D99" s="4">
-        <v>1300</v>
+        <v>1346</v>
       </c>
       <c r="E99" s="4">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="100" ht="12" customHeight="1">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="100" ht="14" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -2750,58 +2749,58 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="101" ht="12" customHeight="1">
+    <row r="101" ht="14" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>15247</v>
+        <v>15281</v>
       </c>
       <c r="C101" s="4">
-        <v>2962</v>
+        <v>2967</v>
       </c>
       <c r="D101" s="4">
-        <v>3322</v>
+        <v>3559</v>
       </c>
       <c r="E101" s="4">
-        <v>21531</v>
-      </c>
-    </row>
-    <row r="102" ht="12" customHeight="1">
+        <v>21807</v>
+      </c>
+    </row>
+    <row r="102" ht="14" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>2902373</v>
+        <v>2919301</v>
       </c>
       <c r="C102" s="4">
-        <v>112494</v>
+        <v>112593</v>
       </c>
       <c r="D102" s="4">
-        <v>145423</v>
+        <v>150249</v>
       </c>
       <c r="E102" s="4">
-        <v>3160290</v>
-      </c>
-    </row>
-    <row r="103" ht="12" customHeight="1">
+        <v>3182143</v>
+      </c>
+    </row>
+    <row r="103" ht="14" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>47943</v>
+        <v>48083</v>
       </c>
       <c r="C103" s="4">
-        <v>5933</v>
+        <v>5943</v>
       </c>
       <c r="D103" s="4">
-        <v>5180</v>
+        <v>5219</v>
       </c>
       <c r="E103" s="4">
-        <v>59056</v>
-      </c>
-    </row>
-    <row r="104" ht="12" customHeight="1">
+        <v>59245</v>
+      </c>
+    </row>
+    <row r="104" ht="14" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -2818,41 +2817,41 @@
         <v>168</v>
       </c>
     </row>
-    <row r="105" ht="12" customHeight="1">
+    <row r="105" ht="14" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C105" s="4">
         <v>27</v>
       </c>
       <c r="D105" s="4">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="E105" s="4">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="106" ht="12" customHeight="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="106" ht="14" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>166727</v>
+        <v>166983</v>
       </c>
       <c r="C106" s="4">
         <v>9380</v>
       </c>
       <c r="D106" s="4">
-        <v>6297</v>
+        <v>6604</v>
       </c>
       <c r="E106" s="4">
-        <v>182404</v>
-      </c>
-    </row>
-    <row r="107" ht="12" customHeight="1">
+        <v>182967</v>
+      </c>
+    </row>
+    <row r="107" ht="14" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
@@ -2869,194 +2868,194 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="108" ht="12" customHeight="1">
+    <row r="108" ht="14" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>21555</v>
+        <v>21583</v>
       </c>
       <c r="C108" s="4">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="D108" s="4">
-        <v>4487</v>
+        <v>4521</v>
       </c>
       <c r="E108" s="4">
-        <v>27963</v>
-      </c>
-    </row>
-    <row r="109" ht="12" customHeight="1">
+        <v>28027</v>
+      </c>
+    </row>
+    <row r="109" ht="14" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>347950</v>
+        <v>348474</v>
       </c>
       <c r="C109" s="4">
-        <v>12822</v>
+        <v>12833</v>
       </c>
       <c r="D109" s="4">
-        <v>46943</v>
+        <v>49400</v>
       </c>
       <c r="E109" s="4">
-        <v>407715</v>
-      </c>
-    </row>
-    <row r="110" ht="12" customHeight="1">
+        <v>410707</v>
+      </c>
+    </row>
+    <row r="110" ht="14" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>27589</v>
+        <v>27662</v>
       </c>
       <c r="C110" s="4">
         <v>925</v>
       </c>
       <c r="D110" s="4">
-        <v>3643</v>
+        <v>3711</v>
       </c>
       <c r="E110" s="4">
-        <v>32157</v>
-      </c>
-    </row>
-    <row r="111" ht="12" customHeight="1">
+        <v>32298</v>
+      </c>
+    </row>
+    <row r="111" ht="14" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6550</v>
+        <v>6553</v>
       </c>
       <c r="C111" s="4">
         <v>68</v>
       </c>
       <c r="D111" s="4">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="E111" s="4">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="112" ht="12" customHeight="1">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="112" ht="14" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>28070</v>
+        <v>28254</v>
       </c>
       <c r="C112" s="4">
         <v>2111</v>
       </c>
       <c r="D112" s="4">
-        <v>12275</v>
+        <v>12449</v>
       </c>
       <c r="E112" s="4">
-        <v>42456</v>
-      </c>
-    </row>
-    <row r="113" ht="12" customHeight="1">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="113" ht="14" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>13579</v>
+        <v>13647</v>
       </c>
       <c r="C113" s="4">
         <v>1763</v>
       </c>
       <c r="D113" s="4">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="E113" s="4">
-        <v>16940</v>
-      </c>
-    </row>
-    <row r="114" ht="12" customHeight="1">
+        <v>17013</v>
+      </c>
+    </row>
+    <row r="114" ht="14" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>12756</v>
+        <v>12778</v>
       </c>
       <c r="C114" s="4">
         <v>302</v>
       </c>
       <c r="D114" s="4">
-        <v>1463</v>
+        <v>1476</v>
       </c>
       <c r="E114" s="4">
-        <v>14521</v>
-      </c>
-    </row>
-    <row r="115" ht="12" customHeight="1">
+        <v>14556</v>
+      </c>
+    </row>
+    <row r="115" ht="14" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>12354</v>
+        <v>12441</v>
       </c>
       <c r="C115" s="4">
         <v>392</v>
       </c>
       <c r="D115" s="4">
-        <v>2609</v>
+        <v>2701</v>
       </c>
       <c r="E115" s="4">
-        <v>15355</v>
-      </c>
-    </row>
-    <row r="116" ht="12" customHeight="1">
+        <v>15534</v>
+      </c>
+    </row>
+    <row r="116" ht="14" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="C116" s="4">
         <v>24</v>
       </c>
       <c r="D116" s="4">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E116" s="4">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="117" ht="12" customHeight="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="117" ht="14" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>58169</v>
+        <v>58463</v>
       </c>
       <c r="C117" s="4">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="D117" s="4">
-        <v>5635</v>
+        <v>5767</v>
       </c>
       <c r="E117" s="4">
-        <v>66971</v>
-      </c>
-    </row>
-    <row r="118" ht="12" customHeight="1">
+        <v>67401</v>
+      </c>
+    </row>
+    <row r="118" ht="14" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7471</v>
+        <v>7485</v>
       </c>
       <c r="C118" s="4">
         <v>422</v>
       </c>
       <c r="D118" s="4">
-        <v>1894</v>
+        <v>1962</v>
       </c>
       <c r="E118" s="4">
-        <v>9787</v>
-      </c>
-    </row>
-    <row r="119" ht="12" customHeight="1">
+        <v>9869</v>
+      </c>
+    </row>
+    <row r="119" ht="14" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>122</v>
       </c>
@@ -3073,58 +3072,58 @@
         <v>490</v>
       </c>
     </row>
-    <row r="120" ht="12" customHeight="1">
+    <row r="120" ht="14" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C120" s="4">
         <v>98</v>
       </c>
       <c r="D120" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E120" s="4">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="121" ht="12" customHeight="1">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="121" ht="14" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>5794</v>
+        <v>5804</v>
       </c>
       <c r="C121" s="4">
         <v>98</v>
       </c>
       <c r="D121" s="4">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="E121" s="4">
-        <v>6563</v>
-      </c>
-    </row>
-    <row r="122" ht="12" customHeight="1">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="122" ht="14" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>10557</v>
+        <v>10563</v>
       </c>
       <c r="C122" s="4">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="D122" s="4">
-        <v>1834</v>
+        <v>1865</v>
       </c>
       <c r="E122" s="4">
-        <v>14813</v>
-      </c>
-    </row>
-    <row r="123" ht="12" customHeight="1">
+        <v>14853</v>
+      </c>
+    </row>
+    <row r="123" ht="14" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>126</v>
       </c>
@@ -3135,149 +3134,149 @@
         <v>24</v>
       </c>
       <c r="D123" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E123" s="4">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="124" ht="12" customHeight="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="124" ht="14" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>131256</v>
+        <v>131444</v>
       </c>
       <c r="C124" s="4">
-        <v>10939</v>
+        <v>10962</v>
       </c>
       <c r="D124" s="4">
-        <v>16763</v>
+        <v>17254</v>
       </c>
       <c r="E124" s="4">
-        <v>158958</v>
-      </c>
-    </row>
-    <row r="125" ht="12" customHeight="1">
+        <v>159660</v>
+      </c>
+    </row>
+    <row r="125" ht="14" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>9639</v>
+        <v>9642</v>
       </c>
       <c r="C125" s="4">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D125" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E125" s="4">
-        <v>10393</v>
-      </c>
-    </row>
-    <row r="126" ht="12" customHeight="1">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="126" ht="14" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>38101</v>
+        <v>38140</v>
       </c>
       <c r="C126" s="4">
         <v>6390</v>
       </c>
       <c r="D126" s="4">
-        <v>7973</v>
+        <v>8344</v>
       </c>
       <c r="E126" s="4">
-        <v>52464</v>
-      </c>
-    </row>
-    <row r="127" ht="12" customHeight="1">
+        <v>52874</v>
+      </c>
+    </row>
+    <row r="127" ht="14" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>90166</v>
+        <v>90637</v>
       </c>
       <c r="C127" s="4">
-        <v>5855</v>
+        <v>5861</v>
       </c>
       <c r="D127" s="4">
-        <v>8269</v>
+        <v>8621</v>
       </c>
       <c r="E127" s="4">
-        <v>104290</v>
-      </c>
-    </row>
-    <row r="128" ht="12" customHeight="1">
+        <v>105119</v>
+      </c>
+    </row>
+    <row r="128" ht="14" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>4735</v>
+        <v>4738</v>
       </c>
       <c r="C128" s="4">
         <v>177</v>
       </c>
       <c r="D128" s="4">
-        <v>1808</v>
+        <v>1851</v>
       </c>
       <c r="E128" s="4">
-        <v>6720</v>
-      </c>
-    </row>
-    <row r="129" ht="12" customHeight="1">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="129" ht="14" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>10928</v>
+        <v>10937</v>
       </c>
       <c r="C129" s="4">
         <v>345</v>
       </c>
       <c r="D129" s="4">
-        <v>2516</v>
+        <v>2635</v>
       </c>
       <c r="E129" s="4">
-        <v>13789</v>
-      </c>
-    </row>
-    <row r="130" ht="12" customHeight="1">
+        <v>13917</v>
+      </c>
+    </row>
+    <row r="130" ht="14" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>78600</v>
+        <v>78866</v>
       </c>
       <c r="C130" s="4">
-        <v>4428</v>
+        <v>4436</v>
       </c>
       <c r="D130" s="4">
-        <v>8307</v>
+        <v>8629</v>
       </c>
       <c r="E130" s="4">
-        <v>91335</v>
-      </c>
-    </row>
-    <row r="131" ht="12" customHeight="1">
+        <v>91931</v>
+      </c>
+    </row>
+    <row r="131" ht="14" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>16697</v>
+        <v>16757</v>
       </c>
       <c r="C131" s="4">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D131" s="4">
-        <v>4148</v>
+        <v>4268</v>
       </c>
       <c r="E131" s="4">
-        <v>21873</v>
-      </c>
-    </row>
-    <row r="132" ht="12" customHeight="1">
+        <v>22054</v>
+      </c>
+    </row>
+    <row r="132" ht="14" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>135</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" ht="12" customHeight="1">
+    <row r="133" ht="14" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>136</v>
       </c>
@@ -3311,24 +3310,24 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" ht="12" customHeight="1">
+    <row r="134" ht="14" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>24343</v>
+        <v>24374</v>
       </c>
       <c r="C134" s="4">
         <v>514</v>
       </c>
       <c r="D134" s="4">
-        <v>13365</v>
+        <v>13654</v>
       </c>
       <c r="E134" s="4">
-        <v>38222</v>
-      </c>
-    </row>
-    <row r="135" ht="12" customHeight="1">
+        <v>38542</v>
+      </c>
+    </row>
+    <row r="135" ht="14" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>138</v>
       </c>
@@ -3339,13 +3338,13 @@
         <v>34</v>
       </c>
       <c r="D135" s="4">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E135" s="4">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="136" ht="12" customHeight="1">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="136" ht="14" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>139</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" ht="12" customHeight="1">
+    <row r="137" ht="14" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>140</v>
       </c>
@@ -3373,81 +3372,81 @@
         <v>36</v>
       </c>
       <c r="D137" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E137" s="4">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="138" ht="12" customHeight="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="138" ht="14" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>21153</v>
+        <v>21159</v>
       </c>
       <c r="C138" s="4">
         <v>3539</v>
       </c>
       <c r="D138" s="4">
-        <v>3541</v>
+        <v>3565</v>
       </c>
       <c r="E138" s="4">
-        <v>28233</v>
-      </c>
-    </row>
-    <row r="139" ht="12" customHeight="1">
+        <v>28263</v>
+      </c>
+    </row>
+    <row r="139" ht="14" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C139" s="4">
         <v>28</v>
       </c>
       <c r="D139" s="4">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="E139" s="4">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="140" ht="12" customHeight="1">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="140" ht="14" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>5913</v>
+        <v>5918</v>
       </c>
       <c r="C140" s="4">
         <v>267</v>
       </c>
       <c r="D140" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E140" s="4">
-        <v>6314</v>
-      </c>
-    </row>
-    <row r="141" ht="12" customHeight="1">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="141" ht="14" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>17488</v>
+        <v>17589</v>
       </c>
       <c r="C141" s="4">
         <v>1887</v>
       </c>
       <c r="D141" s="4">
-        <v>1517</v>
+        <v>1527</v>
       </c>
       <c r="E141" s="4">
-        <v>20892</v>
-      </c>
-    </row>
-    <row r="142" ht="12" customHeight="1">
+        <v>21003</v>
+      </c>
+    </row>
+    <row r="142" ht="14" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>145</v>
       </c>
@@ -3458,115 +3457,115 @@
         <v>69</v>
       </c>
       <c r="D142" s="4">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E142" s="4">
-        <v>7721</v>
-      </c>
-    </row>
-    <row r="143" ht="12" customHeight="1">
+        <v>7722</v>
+      </c>
+    </row>
+    <row r="143" ht="14" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>12629</v>
+        <v>12651</v>
       </c>
       <c r="C143" s="4">
         <v>565</v>
       </c>
       <c r="D143" s="4">
-        <v>1772</v>
+        <v>1800</v>
       </c>
       <c r="E143" s="4">
-        <v>14966</v>
-      </c>
-    </row>
-    <row r="144" ht="12" customHeight="1">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="144" ht="14" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9118</v>
+        <v>9129</v>
       </c>
       <c r="C144" s="4">
         <v>332</v>
       </c>
       <c r="D144" s="4">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="E144" s="4">
-        <v>11077</v>
-      </c>
-    </row>
-    <row r="145" ht="12" customHeight="1">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="145" ht="14" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6423</v>
+        <v>6426</v>
       </c>
       <c r="C145" s="4">
         <v>187</v>
       </c>
       <c r="D145" s="4">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="E145" s="4">
-        <v>8178</v>
-      </c>
-    </row>
-    <row r="146" ht="12" customHeight="1">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="146" ht="14" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7467</v>
+        <v>7472</v>
       </c>
       <c r="C146" s="4">
         <v>424</v>
       </c>
       <c r="D146" s="4">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="E146" s="4">
-        <v>8788</v>
-      </c>
-    </row>
-    <row r="147" ht="12" customHeight="1">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="147" ht="14" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>37611</v>
+        <v>37732</v>
       </c>
       <c r="C147" s="4">
         <v>2564</v>
       </c>
       <c r="D147" s="4">
-        <v>2933</v>
+        <v>3021</v>
       </c>
       <c r="E147" s="4">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="148" ht="12" customHeight="1">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="148" ht="14" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>22575</v>
+        <v>22684</v>
       </c>
       <c r="C148" s="4">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D148" s="4">
-        <v>2407</v>
+        <v>2613</v>
       </c>
       <c r="E148" s="4">
-        <v>25506</v>
-      </c>
-    </row>
-    <row r="149" ht="12" customHeight="1">
+        <v>25822</v>
+      </c>
+    </row>
+    <row r="149" ht="14" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>152</v>
       </c>
@@ -3583,41 +3582,41 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" ht="12" customHeight="1">
+    <row r="150" ht="14" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>3925</v>
+        <v>3932</v>
       </c>
       <c r="C150" s="4">
         <v>742</v>
       </c>
       <c r="D150" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E150" s="4">
-        <v>5092</v>
-      </c>
-    </row>
-    <row r="151" ht="12" customHeight="1">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="151" ht="14" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>7852</v>
+        <v>7860</v>
       </c>
       <c r="C151" s="4">
         <v>283</v>
       </c>
       <c r="D151" s="4">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E151" s="4">
-        <v>8686</v>
-      </c>
-    </row>
-    <row r="152" ht="12" customHeight="1">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="152" ht="14" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>155</v>
       </c>
@@ -3634,24 +3633,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" ht="12" customHeight="1">
+    <row r="153" ht="14" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>163852</v>
+        <v>164056</v>
       </c>
       <c r="C153" s="4">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="D153" s="4">
-        <v>68506</v>
+        <v>68762</v>
       </c>
       <c r="E153" s="4">
-        <v>238300</v>
-      </c>
-    </row>
-    <row r="154" ht="12" customHeight="1">
+        <v>238762</v>
+      </c>
+    </row>
+    <row r="154" ht="14" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>157</v>
       </c>
@@ -3662,47 +3661,47 @@
         <v>75</v>
       </c>
       <c r="D154" s="4">
-        <v>918</v>
+        <v>965</v>
       </c>
       <c r="E154" s="4">
-        <v>3607</v>
-      </c>
-    </row>
-    <row r="155" ht="12" customHeight="1">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="155" ht="14" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10087</v>
+        <v>10090</v>
       </c>
       <c r="C155" s="4">
         <v>125</v>
       </c>
       <c r="D155" s="4">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E155" s="4">
-        <v>11179</v>
-      </c>
-    </row>
-    <row r="156" ht="12" customHeight="1">
+        <v>11185</v>
+      </c>
+    </row>
+    <row r="156" ht="14" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="C156" s="4">
         <v>605</v>
       </c>
       <c r="D156" s="4">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E156" s="4">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="157" ht="12" customHeight="1">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="157" ht="14" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
@@ -3710,101 +3709,101 @@
         <v>1022</v>
       </c>
       <c r="C157" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D157" s="4">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E157" s="4">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="158" ht="12" customHeight="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="158" ht="14" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C158" s="4">
         <v>42</v>
       </c>
       <c r="D158" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E158" s="4">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="159" ht="12" customHeight="1">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="159" ht="14" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>23580</v>
+        <v>23648</v>
       </c>
       <c r="C159" s="4">
         <v>582</v>
       </c>
       <c r="D159" s="4">
-        <v>1233</v>
+        <v>1246</v>
       </c>
       <c r="E159" s="4">
-        <v>25395</v>
-      </c>
-    </row>
-    <row r="160" ht="12" customHeight="1">
+        <v>25476</v>
+      </c>
+    </row>
+    <row r="160" ht="14" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>44459</v>
+        <v>44469</v>
       </c>
       <c r="C160" s="4">
         <v>251</v>
       </c>
       <c r="D160" s="4">
-        <v>2435</v>
+        <v>2441</v>
       </c>
       <c r="E160" s="4">
-        <v>47145</v>
-      </c>
-    </row>
-    <row r="161" ht="12" customHeight="1">
+        <v>47161</v>
+      </c>
+    </row>
+    <row r="161" ht="14" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C161" s="4">
         <v>33</v>
       </c>
       <c r="D161" s="4">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E161" s="4">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="162" ht="12" customHeight="1">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="162" ht="14" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>188790</v>
+        <v>188958</v>
       </c>
       <c r="C162" s="4">
-        <v>8892</v>
+        <v>8895</v>
       </c>
       <c r="D162" s="4">
-        <v>32851</v>
+        <v>33243</v>
       </c>
       <c r="E162" s="4">
-        <v>230533</v>
-      </c>
-    </row>
-    <row r="163" ht="12" customHeight="1">
+        <v>231096</v>
+      </c>
+    </row>
+    <row r="163" ht="14" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>166</v>
       </c>
@@ -3815,30 +3814,30 @@
         <v>33</v>
       </c>
       <c r="D163" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E163" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" ht="12" customHeight="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" ht="14" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>20393</v>
+        <v>20442</v>
       </c>
       <c r="C164" s="4">
         <v>911</v>
       </c>
       <c r="D164" s="4">
-        <v>2513</v>
+        <v>2580</v>
       </c>
       <c r="E164" s="4">
-        <v>23817</v>
-      </c>
-    </row>
-    <row r="165" ht="12" customHeight="1">
+        <v>23933</v>
+      </c>
+    </row>
+    <row r="165" ht="14" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>168</v>
       </c>
@@ -3855,58 +3854,58 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="166" ht="12" customHeight="1">
+    <row r="166" ht="14" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>36828</v>
+        <v>36844</v>
       </c>
       <c r="C166" s="4">
-        <v>4647</v>
+        <v>4651</v>
       </c>
       <c r="D166" s="4">
-        <v>24724</v>
+        <v>25218</v>
       </c>
       <c r="E166" s="4">
-        <v>66199</v>
-      </c>
-    </row>
-    <row r="167" ht="12" customHeight="1">
+        <v>66713</v>
+      </c>
+    </row>
+    <row r="167" ht="14" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>12513</v>
+        <v>12595</v>
       </c>
       <c r="C167" s="4">
         <v>746</v>
       </c>
       <c r="D167" s="4">
-        <v>3510</v>
+        <v>3545</v>
       </c>
       <c r="E167" s="4">
-        <v>16769</v>
-      </c>
-    </row>
-    <row r="168" ht="12" customHeight="1">
+        <v>16886</v>
+      </c>
+    </row>
+    <row r="168" ht="14" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3438</v>
+        <v>3486</v>
       </c>
       <c r="C168" s="4">
         <v>76</v>
       </c>
       <c r="D168" s="4">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="E168" s="4">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="169" ht="12" customHeight="1">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="169" ht="14" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>172</v>
       </c>
@@ -3917,81 +3916,81 @@
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>1867</v>
+        <v>1897</v>
       </c>
       <c r="E169" s="4">
-        <v>5595</v>
-      </c>
-    </row>
-    <row r="170" ht="12" customHeight="1">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="170" ht="14" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8449</v>
+        <v>8454</v>
       </c>
       <c r="C170" s="4">
         <v>497</v>
       </c>
       <c r="D170" s="4">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="E170" s="4">
-        <v>10823</v>
-      </c>
-    </row>
-    <row r="171" ht="12" customHeight="1">
+        <v>10831</v>
+      </c>
+    </row>
+    <row r="171" ht="14" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>263688</v>
+        <v>264364</v>
       </c>
       <c r="C171" s="4">
-        <v>13656</v>
+        <v>13660</v>
       </c>
       <c r="D171" s="4">
-        <v>17608</v>
+        <v>18495</v>
       </c>
       <c r="E171" s="4">
-        <v>294952</v>
-      </c>
-    </row>
-    <row r="172" ht="12" customHeight="1">
+        <v>296519</v>
+      </c>
+    </row>
+    <row r="172" ht="14" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6606</v>
+        <v>6609</v>
       </c>
       <c r="C172" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D172" s="4">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="E172" s="4">
-        <v>7924</v>
-      </c>
-    </row>
-    <row r="173" ht="12" customHeight="1">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="173" ht="14" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4443</v>
+        <v>4455</v>
       </c>
       <c r="C173" s="4">
         <v>587</v>
       </c>
       <c r="D173" s="4">
-        <v>2269</v>
+        <v>2339</v>
       </c>
       <c r="E173" s="4">
-        <v>7299</v>
-      </c>
-    </row>
-    <row r="174" ht="12" customHeight="1">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="174" ht="14" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
@@ -4008,41 +4007,41 @@
         <v>513</v>
       </c>
     </row>
-    <row r="175" ht="12" customHeight="1">
+    <row r="175" ht="14" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>32242</v>
+        <v>32262</v>
       </c>
       <c r="C175" s="4">
         <v>956</v>
       </c>
       <c r="D175" s="4">
-        <v>2947</v>
+        <v>2986</v>
       </c>
       <c r="E175" s="4">
-        <v>36145</v>
-      </c>
-    </row>
-    <row r="176" ht="12" customHeight="1">
+        <v>36204</v>
+      </c>
+    </row>
+    <row r="176" ht="14" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21093</v>
+        <v>21133</v>
       </c>
       <c r="C176" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D176" s="4">
-        <v>5657</v>
+        <v>5717</v>
       </c>
       <c r="E176" s="4">
-        <v>28142</v>
-      </c>
-    </row>
-    <row r="177" ht="12" customHeight="1">
+        <v>28245</v>
+      </c>
+    </row>
+    <row r="177" ht="14" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>180</v>
       </c>
@@ -4053,64 +4052,64 @@
         <v>724</v>
       </c>
       <c r="D177" s="4">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="E177" s="4">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="178" ht="12" customHeight="1">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="178" ht="14" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>5830</v>
+        <v>5833</v>
       </c>
       <c r="C178" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D178" s="4">
-        <v>2124</v>
+        <v>2139</v>
       </c>
       <c r="E178" s="4">
-        <v>8070</v>
-      </c>
-    </row>
-    <row r="179" ht="12" customHeight="1">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="179" ht="14" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>171984</v>
+        <v>172466</v>
       </c>
       <c r="C179" s="4">
-        <v>34246</v>
+        <v>34250</v>
       </c>
       <c r="D179" s="4">
-        <v>25795</v>
+        <v>26274</v>
       </c>
       <c r="E179" s="4">
-        <v>232025</v>
-      </c>
-    </row>
-    <row r="180" ht="12" customHeight="1">
+        <v>232990</v>
+      </c>
+    </row>
+    <row r="180" ht="14" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C180" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180" s="4">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E180" s="4">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="181" ht="12" customHeight="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="181" ht="14" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>184</v>
       </c>
@@ -4121,81 +4120,81 @@
         <v>91</v>
       </c>
       <c r="D181" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E181" s="4">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="182" ht="12" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="182" ht="14" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>20973</v>
+        <v>20992</v>
       </c>
       <c r="C182" s="4">
-        <v>4801</v>
+        <v>4813</v>
       </c>
       <c r="D182" s="4">
-        <v>4949</v>
+        <v>5187</v>
       </c>
       <c r="E182" s="4">
-        <v>30723</v>
-      </c>
-    </row>
-    <row r="183" ht="12" customHeight="1">
+        <v>30992</v>
+      </c>
+    </row>
+    <row r="183" ht="14" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>10647</v>
+        <v>10695</v>
       </c>
       <c r="C183" s="4">
         <v>823</v>
       </c>
       <c r="D183" s="4">
-        <v>2781</v>
+        <v>2800</v>
       </c>
       <c r="E183" s="4">
-        <v>14251</v>
-      </c>
-    </row>
-    <row r="184" ht="12" customHeight="1">
+        <v>14318</v>
+      </c>
+    </row>
+    <row r="184" ht="14" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>6859</v>
+        <v>6971</v>
       </c>
       <c r="C184" s="4">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="D184" s="4">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="E184" s="4">
-        <v>8965</v>
-      </c>
-    </row>
-    <row r="185" ht="12" customHeight="1">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="185" ht="14" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>51336</v>
+        <v>51629</v>
       </c>
       <c r="C185" s="4">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="D185" s="4">
-        <v>10331</v>
+        <v>10546</v>
       </c>
       <c r="E185" s="4">
-        <v>67008</v>
-      </c>
-    </row>
-    <row r="186" ht="12" customHeight="1">
+        <v>67517</v>
+      </c>
+    </row>
+    <row r="186" ht="14" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>189</v>
       </c>
@@ -4206,64 +4205,64 @@
         <v>60</v>
       </c>
       <c r="D186" s="4">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E186" s="4">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="187" ht="12" customHeight="1">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="187" ht="14" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8040</v>
+        <v>8043</v>
       </c>
       <c r="C187" s="4">
         <v>80</v>
       </c>
       <c r="D187" s="4">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E187" s="4">
-        <v>8632</v>
-      </c>
-    </row>
-    <row r="188" ht="12" customHeight="1">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="188" ht="14" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>21896</v>
+        <v>22025</v>
       </c>
       <c r="C188" s="4">
         <v>1004</v>
       </c>
       <c r="D188" s="4">
-        <v>2653</v>
+        <v>2772</v>
       </c>
       <c r="E188" s="4">
-        <v>25553</v>
-      </c>
-    </row>
-    <row r="189" ht="12" customHeight="1">
+        <v>25801</v>
+      </c>
+    </row>
+    <row r="189" ht="14" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>59957</v>
+        <v>60209</v>
       </c>
       <c r="C189" s="4">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="D189" s="4">
-        <v>6099</v>
+        <v>6289</v>
       </c>
       <c r="E189" s="4">
-        <v>68628</v>
-      </c>
-    </row>
-    <row r="190" ht="12" customHeight="1">
+        <v>69072</v>
+      </c>
+    </row>
+    <row r="190" ht="14" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>193</v>
       </c>
@@ -4274,47 +4273,47 @@
         <v>33</v>
       </c>
       <c r="D190" s="4">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E190" s="4">
-        <v>7177</v>
-      </c>
-    </row>
-    <row r="191" ht="12" customHeight="1">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="191" ht="14" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2162</v>
+        <v>2171</v>
       </c>
       <c r="C191" s="4">
         <v>345</v>
       </c>
       <c r="D191" s="4">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E191" s="4">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="192" ht="12" customHeight="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="192" ht="14" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>37612</v>
+        <v>37768</v>
       </c>
       <c r="C192" s="4">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="D192" s="4">
-        <v>6177</v>
+        <v>6292</v>
       </c>
       <c r="E192" s="4">
-        <v>48578</v>
-      </c>
-    </row>
-    <row r="193" ht="12" customHeight="1">
+        <v>48850</v>
+      </c>
+    </row>
+    <row r="193" ht="14" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>196</v>
       </c>
@@ -4325,13 +4324,13 @@
         <v>24</v>
       </c>
       <c r="D193" s="4">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E193" s="4">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="194" ht="12" customHeight="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="194" ht="14" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>197</v>
       </c>
@@ -4342,64 +4341,64 @@
         <v>58</v>
       </c>
       <c r="D194" s="4">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E194" s="4">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="195" ht="12" customHeight="1">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="195" ht="14" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4739</v>
+        <v>4749</v>
       </c>
       <c r="C195" s="4">
         <v>437</v>
       </c>
       <c r="D195" s="4">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E195" s="4">
-        <v>5994</v>
-      </c>
-    </row>
-    <row r="196" ht="12" customHeight="1">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="196" ht="14" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4203</v>
+        <v>4254</v>
       </c>
       <c r="C196" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D196" s="4">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E196" s="4">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="197" ht="12" customHeight="1">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="197" ht="14" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="C197" s="4">
         <v>314</v>
       </c>
       <c r="D197" s="4">
-        <v>1470</v>
+        <v>1502</v>
       </c>
       <c r="E197" s="4">
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="198" ht="12" customHeight="1">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="198" ht="14" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>201</v>
       </c>
@@ -4410,98 +4409,98 @@
         <v>15</v>
       </c>
       <c r="D198" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E198" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="199" ht="12" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" ht="14" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9108</v>
+        <v>9126</v>
       </c>
       <c r="C199" s="4">
         <v>218</v>
       </c>
       <c r="D199" s="4">
-        <v>3743</v>
+        <v>3783</v>
       </c>
       <c r="E199" s="4">
-        <v>13069</v>
-      </c>
-    </row>
-    <row r="200" ht="12" customHeight="1">
+        <v>13127</v>
+      </c>
+    </row>
+    <row r="200" ht="14" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>54723</v>
+        <v>54880</v>
       </c>
       <c r="C200" s="4">
-        <v>4416</v>
+        <v>4422</v>
       </c>
       <c r="D200" s="4">
-        <v>2907</v>
+        <v>3040</v>
       </c>
       <c r="E200" s="4">
-        <v>62046</v>
-      </c>
-    </row>
-    <row r="201" ht="12" customHeight="1">
+        <v>62342</v>
+      </c>
+    </row>
+    <row r="201" ht="14" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="C201" s="4">
         <v>128</v>
       </c>
       <c r="D201" s="4">
-        <v>1788</v>
+        <v>1830</v>
       </c>
       <c r="E201" s="4">
-        <v>6780</v>
-      </c>
-    </row>
-    <row r="202" ht="12" customHeight="1">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="202" ht="14" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>14733</v>
+        <v>14749</v>
       </c>
       <c r="C202" s="4">
         <v>1688</v>
       </c>
       <c r="D202" s="4">
-        <v>1250</v>
+        <v>1293</v>
       </c>
       <c r="E202" s="4">
-        <v>17671</v>
-      </c>
-    </row>
-    <row r="203" ht="12" customHeight="1">
+        <v>17730</v>
+      </c>
+    </row>
+    <row r="203" ht="14" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4509</v>
+        <v>4515</v>
       </c>
       <c r="C203" s="4">
         <v>349</v>
       </c>
       <c r="D203" s="4">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="E203" s="4">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="204" ht="12" customHeight="1">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="204" ht="14" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>207</v>
       </c>
@@ -4512,69 +4511,69 @@
         <v>52</v>
       </c>
       <c r="D204" s="4">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="E204" s="4">
-        <v>5486</v>
-      </c>
-    </row>
-    <row r="205" ht="12" customHeight="1">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="205" ht="14" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>11590</v>
+        <v>11622</v>
       </c>
       <c r="C205" s="4">
         <v>1277</v>
       </c>
       <c r="D205" s="4">
-        <v>1339</v>
+        <v>1396</v>
       </c>
       <c r="E205" s="4">
-        <v>14206</v>
-      </c>
-    </row>
-    <row r="206" ht="12" customHeight="1">
+        <v>14295</v>
+      </c>
+    </row>
+    <row r="206" ht="14" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>22602</v>
+        <v>22678</v>
       </c>
       <c r="C206" s="4">
         <v>6259</v>
       </c>
       <c r="D206" s="4">
-        <v>8874</v>
+        <v>9067</v>
       </c>
       <c r="E206" s="4">
-        <v>37735</v>
-      </c>
-    </row>
-    <row r="207" ht="12" customHeight="1">
+        <v>38004</v>
+      </c>
+    </row>
+    <row r="207" ht="14" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C207" s="4">
         <v>73</v>
       </c>
       <c r="D207" s="4">
-        <v>1254</v>
+        <v>1276</v>
       </c>
       <c r="E207" s="4">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="208" ht="12" customHeight="1">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="208" ht="14" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
@@ -4583,10 +4582,10 @@
         <v>335</v>
       </c>
       <c r="E208" s="4">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="209" ht="12" customHeight="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="209" ht="14" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>212</v>
       </c>
@@ -4594,16 +4593,16 @@
         <v>14955</v>
       </c>
       <c r="C209" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D209" s="4">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E209" s="4">
-        <v>15524</v>
-      </c>
-    </row>
-    <row r="210" ht="12" customHeight="1">
+        <v>15533</v>
+      </c>
+    </row>
+    <row r="210" ht="14" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>213</v>
       </c>
@@ -4614,30 +4613,30 @@
         <v>64</v>
       </c>
       <c r="D210" s="4">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E210" s="4">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="211" ht="12" customHeight="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="211" ht="14" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>9586</v>
+        <v>9652</v>
       </c>
       <c r="C211" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D211" s="4">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E211" s="4">
-        <v>11672</v>
-      </c>
-    </row>
-    <row r="212" ht="12" customHeight="1">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="212" ht="14" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>215</v>
       </c>
@@ -4648,81 +4647,81 @@
         <v>12</v>
       </c>
       <c r="D212" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E212" s="4">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="213" ht="12" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" ht="14" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>146071</v>
+        <v>146234</v>
       </c>
       <c r="C213" s="4">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="D213" s="4">
-        <v>12578</v>
+        <v>12684</v>
       </c>
       <c r="E213" s="4">
-        <v>167103</v>
-      </c>
-    </row>
-    <row r="214" ht="12" customHeight="1">
+        <v>167373</v>
+      </c>
+    </row>
+    <row r="214" ht="14" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3458</v>
+        <v>3469</v>
       </c>
       <c r="C214" s="4">
         <v>320</v>
       </c>
       <c r="D214" s="4">
-        <v>3011</v>
+        <v>3249</v>
       </c>
       <c r="E214" s="4">
-        <v>6789</v>
-      </c>
-    </row>
-    <row r="215" ht="12" customHeight="1">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="215" ht="14" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>36791</v>
+        <v>36803</v>
       </c>
       <c r="C215" s="4">
         <v>452</v>
       </c>
       <c r="D215" s="4">
-        <v>2263</v>
+        <v>2454</v>
       </c>
       <c r="E215" s="4">
-        <v>39506</v>
-      </c>
-    </row>
-    <row r="216" ht="12" customHeight="1">
+        <v>39709</v>
+      </c>
+    </row>
+    <row r="216" ht="14" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C216" s="4">
         <v>127</v>
       </c>
       <c r="D216" s="4">
-        <v>1160</v>
+        <v>1205</v>
       </c>
       <c r="E216" s="4">
-        <v>3283</v>
-      </c>
-    </row>
-    <row r="217" ht="12" customHeight="1">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="217" ht="14" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>220</v>
       </c>
@@ -4739,24 +4738,24 @@
         <v>794</v>
       </c>
     </row>
-    <row r="218" ht="12" customHeight="1">
+    <row r="218" ht="14" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C218" s="4">
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E218" s="4">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="219" ht="12" customHeight="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="219" ht="14" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>222</v>
       </c>
@@ -4767,506 +4766,506 @@
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E219" s="4">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="220" ht="12" customHeight="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="220" ht="14" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="C220" s="4">
         <v>111</v>
       </c>
       <c r="D220" s="4">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E220" s="4">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="221" ht="12" customHeight="1">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="221" ht="14" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1183633</v>
+        <v>1190697</v>
       </c>
       <c r="C221" s="4">
-        <v>80188</v>
+        <v>80310</v>
       </c>
       <c r="D221" s="4">
-        <v>99966</v>
+        <v>103684</v>
       </c>
       <c r="E221" s="4">
-        <v>1363787</v>
-      </c>
-    </row>
-    <row r="222" ht="12" customHeight="1">
+        <v>1374691</v>
+      </c>
+    </row>
+    <row r="222" ht="14" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>67620</v>
+        <v>67646</v>
       </c>
       <c r="C222" s="4">
-        <v>2853</v>
+        <v>2858</v>
       </c>
       <c r="D222" s="4">
-        <v>25421</v>
+        <v>25869</v>
       </c>
       <c r="E222" s="4">
-        <v>95894</v>
-      </c>
-    </row>
-    <row r="223" ht="12" customHeight="1">
+        <v>96373</v>
+      </c>
+    </row>
+    <row r="223" ht="14" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E223" s="4">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="224" ht="12" customHeight="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" ht="14" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="C224" s="4">
         <v>95</v>
       </c>
       <c r="D224" s="4">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="E224" s="4">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="225" ht="12" customHeight="1">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="225" ht="14" customHeight="1">
       <c r="A225" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C225" s="4">
         <v>19</v>
       </c>
       <c r="D225" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E225" s="4">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="226" ht="12" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="226" ht="14" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>18531</v>
+        <v>18540</v>
       </c>
       <c r="C226" s="4">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D226" s="4">
-        <v>2333</v>
+        <v>2338</v>
       </c>
       <c r="E226" s="4">
-        <v>21788</v>
-      </c>
-    </row>
-    <row r="227" ht="12" customHeight="1">
+        <v>21803</v>
+      </c>
+    </row>
+    <row r="227" ht="14" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>62001</v>
+        <v>62135</v>
       </c>
       <c r="C227" s="4">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D227" s="4">
-        <v>29738</v>
+        <v>29926</v>
       </c>
       <c r="E227" s="4">
-        <v>93041</v>
-      </c>
-    </row>
-    <row r="228" ht="12" customHeight="1">
+        <v>93364</v>
+      </c>
+    </row>
+    <row r="228" ht="14" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>720751</v>
+        <v>726443</v>
       </c>
       <c r="C228" s="4">
-        <v>30441</v>
+        <v>30450</v>
       </c>
       <c r="D228" s="4">
-        <v>66022</v>
+        <v>68023</v>
       </c>
       <c r="E228" s="4">
-        <v>817214</v>
-      </c>
-    </row>
-    <row r="229" ht="12" customHeight="1">
+        <v>824916</v>
+      </c>
+    </row>
+    <row r="229" ht="14" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>7761</v>
+        <v>7779</v>
       </c>
       <c r="C229" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D229" s="4">
-        <v>1509</v>
+        <v>1557</v>
       </c>
       <c r="E229" s="4">
-        <v>9467</v>
-      </c>
-    </row>
-    <row r="230" ht="12" customHeight="1">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="230" ht="14" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7125</v>
+        <v>7128</v>
       </c>
       <c r="C230" s="4">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D230" s="4">
-        <v>2967</v>
+        <v>3037</v>
       </c>
       <c r="E230" s="4">
-        <v>10899</v>
-      </c>
-    </row>
-    <row r="231" ht="12" customHeight="1">
+        <v>10977</v>
+      </c>
+    </row>
+    <row r="231" ht="14" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8275</v>
+        <v>8289</v>
       </c>
       <c r="C231" s="4">
         <v>1644</v>
       </c>
       <c r="D231" s="4">
-        <v>2369</v>
+        <v>2385</v>
       </c>
       <c r="E231" s="4">
-        <v>12288</v>
-      </c>
-    </row>
-    <row r="232" ht="12" customHeight="1">
+        <v>12318</v>
+      </c>
+    </row>
+    <row r="232" ht="14" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C232" s="4">
         <v>61</v>
       </c>
       <c r="D232" s="4">
-        <v>1123</v>
+        <v>1136</v>
       </c>
       <c r="E232" s="4">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="233" ht="12" customHeight="1">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="233" ht="14" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>18374</v>
+        <v>18381</v>
       </c>
       <c r="C233" s="4">
         <v>309</v>
       </c>
       <c r="D233" s="4">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="E233" s="4">
-        <v>19231</v>
-      </c>
-    </row>
-    <row r="234" ht="12" customHeight="1">
+        <v>19276</v>
+      </c>
+    </row>
+    <row r="234" ht="14" customHeight="1">
       <c r="A234" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>33479</v>
+        <v>33493</v>
       </c>
       <c r="C234" s="4">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D234" s="4">
-        <v>3536</v>
+        <v>3700</v>
       </c>
       <c r="E234" s="4">
-        <v>38045</v>
-      </c>
-    </row>
-    <row r="235" ht="12" customHeight="1">
+        <v>38225</v>
+      </c>
+    </row>
+    <row r="235" ht="14" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>14381</v>
+        <v>14415</v>
       </c>
       <c r="C235" s="4">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D235" s="4">
-        <v>3672</v>
+        <v>3788</v>
       </c>
       <c r="E235" s="4">
-        <v>19640</v>
-      </c>
-    </row>
-    <row r="236" ht="12" customHeight="1">
+        <v>19791</v>
+      </c>
+    </row>
+    <row r="236" ht="14" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>31031</v>
+        <v>31097</v>
       </c>
       <c r="C236" s="4">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="D236" s="4">
-        <v>7788</v>
+        <v>7997</v>
       </c>
       <c r="E236" s="4">
-        <v>40041</v>
-      </c>
-    </row>
-    <row r="237" ht="12" customHeight="1">
+        <v>40323</v>
+      </c>
+    </row>
+    <row r="237" ht="14" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>75297</v>
+        <v>75337</v>
       </c>
       <c r="C237" s="4">
         <v>984</v>
       </c>
       <c r="D237" s="4">
-        <v>4256</v>
+        <v>4331</v>
       </c>
       <c r="E237" s="4">
-        <v>80537</v>
-      </c>
-    </row>
-    <row r="238" ht="12" customHeight="1">
+        <v>80652</v>
+      </c>
+    </row>
+    <row r="238" ht="14" customHeight="1">
       <c r="A238" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>22711</v>
+        <v>22778</v>
       </c>
       <c r="C238" s="4">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D238" s="4">
-        <v>1066</v>
+        <v>1111</v>
       </c>
       <c r="E238" s="4">
-        <v>24392</v>
-      </c>
-    </row>
-    <row r="239" ht="12" customHeight="1">
+        <v>24505</v>
+      </c>
+    </row>
+    <row r="239" ht="14" customHeight="1">
       <c r="A239" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3819</v>
+        <v>3821</v>
       </c>
       <c r="C239" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D239" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E239" s="4">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="240" ht="12" customHeight="1">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="240" ht="14" customHeight="1">
       <c r="A240" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>28208</v>
+        <v>28284</v>
       </c>
       <c r="C240" s="4">
         <v>466</v>
       </c>
       <c r="D240" s="4">
-        <v>2351</v>
+        <v>2381</v>
       </c>
       <c r="E240" s="4">
-        <v>31025</v>
-      </c>
-    </row>
-    <row r="241" ht="12" customHeight="1">
+        <v>31131</v>
+      </c>
+    </row>
+    <row r="241" ht="14" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>265260</v>
+        <v>265636</v>
       </c>
       <c r="C241" s="4">
-        <v>3960</v>
+        <v>3962</v>
       </c>
       <c r="D241" s="4">
-        <v>21739</v>
+        <v>23955</v>
       </c>
       <c r="E241" s="4">
-        <v>290959</v>
-      </c>
-    </row>
-    <row r="242" ht="12" customHeight="1">
+        <v>293553</v>
+      </c>
+    </row>
+    <row r="242" ht="14" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>24667</v>
+        <v>24770</v>
       </c>
       <c r="C242" s="4">
         <v>657</v>
       </c>
       <c r="D242" s="4">
-        <v>1392</v>
+        <v>1408</v>
       </c>
       <c r="E242" s="4">
-        <v>26716</v>
-      </c>
-    </row>
-    <row r="243" ht="12" customHeight="1">
+        <v>26835</v>
+      </c>
+    </row>
+    <row r="243" ht="14" customHeight="1">
       <c r="A243" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C243" s="4">
         <v>81</v>
       </c>
       <c r="D243" s="4">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="E243" s="4">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="244" ht="12" customHeight="1">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="244" ht="14" customHeight="1">
       <c r="A244" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>91124</v>
+        <v>91208</v>
       </c>
       <c r="C244" s="4">
         <v>1516</v>
       </c>
       <c r="D244" s="4">
-        <v>12658</v>
+        <v>12834</v>
       </c>
       <c r="E244" s="4">
-        <v>105298</v>
-      </c>
-    </row>
-    <row r="245" ht="12" customHeight="1">
+        <v>105558</v>
+      </c>
+    </row>
+    <row r="245" ht="14" customHeight="1">
       <c r="A245" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9621</v>
+        <v>9643</v>
       </c>
       <c r="C245" s="4">
         <v>125</v>
       </c>
       <c r="D245" s="4">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="E245" s="4">
-        <v>12599</v>
-      </c>
-    </row>
-    <row r="246" ht="12" customHeight="1">
+        <v>12623</v>
+      </c>
+    </row>
+    <row r="246" ht="14" customHeight="1">
       <c r="A246" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>17083</v>
+        <v>17086</v>
       </c>
       <c r="C246" s="4">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D246" s="4">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E246" s="4">
-        <v>17829</v>
-      </c>
-    </row>
-    <row r="247" ht="12" customHeight="1">
+        <v>17842</v>
+      </c>
+    </row>
+    <row r="247" ht="14" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>303760</v>
+        <v>304967</v>
       </c>
       <c r="C247" s="4">
-        <v>12148</v>
+        <v>12150</v>
       </c>
       <c r="D247" s="4">
-        <v>25740</v>
+        <v>26720</v>
       </c>
       <c r="E247" s="4">
-        <v>341648</v>
-      </c>
-    </row>
-    <row r="248" ht="12" customHeight="1">
+        <v>343837</v>
+      </c>
+    </row>
+    <row r="248" ht="14" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>22475</v>
+        <v>22501</v>
       </c>
       <c r="C248" s="4">
         <v>795</v>
       </c>
       <c r="D248" s="4">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="E248" s="4">
-        <v>27554</v>
-      </c>
-    </row>
-    <row r="249" ht="12" customHeight="1">
+        <v>27605</v>
+      </c>
+    </row>
+    <row r="249" ht="14" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>252</v>
       </c>
@@ -5283,41 +5282,41 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="250" ht="12" customHeight="1">
+    <row r="250" ht="14" customHeight="1">
       <c r="A250" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>34938</v>
+        <v>34995</v>
       </c>
       <c r="C250" s="4">
         <v>2794</v>
       </c>
       <c r="D250" s="4">
-        <v>3376</v>
+        <v>3425</v>
       </c>
       <c r="E250" s="4">
-        <v>41108</v>
-      </c>
-    </row>
-    <row r="251" ht="12" customHeight="1">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="251" ht="14" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13218</v>
+        <v>13227</v>
       </c>
       <c r="C251" s="4">
         <v>1669</v>
       </c>
       <c r="D251" s="4">
-        <v>2207</v>
+        <v>2238</v>
       </c>
       <c r="E251" s="4">
-        <v>17094</v>
-      </c>
-    </row>
-    <row r="252" ht="12" customHeight="1">
+        <v>17134</v>
+      </c>
+    </row>
+    <row r="252" ht="14" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>255</v>
       </c>
@@ -5334,96 +5333,96 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="253" ht="12" customHeight="1">
+    <row r="253" ht="14" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5462</v>
+        <v>5476</v>
       </c>
       <c r="C253" s="4">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D253" s="4">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="E253" s="4">
-        <v>6927</v>
-      </c>
-    </row>
-    <row r="254" ht="12" customHeight="1">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="254" ht="14" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13013</v>
+        <v>13025</v>
       </c>
       <c r="C254" s="4">
         <v>107</v>
       </c>
       <c r="D254" s="4">
-        <v>1613</v>
+        <v>1725</v>
       </c>
       <c r="E254" s="4">
-        <v>14733</v>
-      </c>
-    </row>
-    <row r="255" ht="12" customHeight="1">
+        <v>14857</v>
+      </c>
+    </row>
+    <row r="255" ht="14" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7181</v>
+        <v>7189</v>
       </c>
       <c r="C255" s="4">
         <v>196</v>
       </c>
       <c r="D255" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E255" s="4">
-        <v>7582</v>
-      </c>
-    </row>
-    <row r="256" ht="12" customHeight="1">
+        <v>7592</v>
+      </c>
+    </row>
+    <row r="256" ht="14" customHeight="1">
       <c r="A256" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>124444</v>
+        <v>124587</v>
       </c>
       <c r="C256" s="4">
-        <v>4086</v>
+        <v>4212</v>
       </c>
       <c r="D256" s="4">
-        <v>2135</v>
+        <v>2182</v>
       </c>
       <c r="E256" s="4">
-        <v>130665</v>
-      </c>
-    </row>
-    <row r="257" ht="12" customHeight="1">
+        <v>130981</v>
+      </c>
+    </row>
+    <row r="257" ht="14" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>16561140</v>
+        <v>16629666</v>
       </c>
       <c r="C257" s="4">
-        <v>897815</v>
+        <v>898817</v>
       </c>
       <c r="D257" s="4">
-        <v>1599086</v>
+        <v>1652273</v>
       </c>
       <c r="E257" s="4">
-        <v>19058041</v>
+        <v>19180756</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>The SAS System</oddHeader>
     <oddFooter/>
